--- a/result/God_2.xlsx
+++ b/result/God_2.xlsx
@@ -732,157 +732,157 @@
         <v>52</v>
       </c>
       <c r="B2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C2">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D2">
+        <v>44</v>
+      </c>
+      <c r="E2">
+        <v>87</v>
+      </c>
+      <c r="F2">
+        <v>38</v>
+      </c>
+      <c r="G2">
+        <v>43</v>
+      </c>
+      <c r="H2">
+        <v>44</v>
+      </c>
+      <c r="I2">
+        <v>43</v>
+      </c>
+      <c r="J2">
+        <v>36</v>
+      </c>
+      <c r="K2">
+        <v>43</v>
+      </c>
+      <c r="L2">
+        <v>48</v>
+      </c>
+      <c r="M2">
+        <v>39</v>
+      </c>
+      <c r="N2">
+        <v>46</v>
+      </c>
+      <c r="O2">
+        <v>46</v>
+      </c>
+      <c r="P2">
+        <v>60</v>
+      </c>
+      <c r="Q2">
+        <v>63</v>
+      </c>
+      <c r="R2">
+        <v>54</v>
+      </c>
+      <c r="S2">
+        <v>60</v>
+      </c>
+      <c r="T2">
+        <v>50</v>
+      </c>
+      <c r="U2">
+        <v>59</v>
+      </c>
+      <c r="V2">
+        <v>45</v>
+      </c>
+      <c r="W2">
+        <v>35</v>
+      </c>
+      <c r="X2">
         <v>53</v>
       </c>
-      <c r="E2">
-        <v>97</v>
-      </c>
-      <c r="F2">
+      <c r="Y2">
+        <v>49</v>
+      </c>
+      <c r="Z2">
+        <v>61</v>
+      </c>
+      <c r="AA2">
+        <v>56</v>
+      </c>
+      <c r="AB2">
+        <v>48</v>
+      </c>
+      <c r="AC2">
+        <v>51</v>
+      </c>
+      <c r="AD2">
+        <v>34</v>
+      </c>
+      <c r="AE2">
+        <v>49</v>
+      </c>
+      <c r="AF2">
+        <v>48</v>
+      </c>
+      <c r="AG2">
+        <v>39</v>
+      </c>
+      <c r="AH2">
+        <v>40</v>
+      </c>
+      <c r="AI2">
+        <v>53</v>
+      </c>
+      <c r="AJ2">
+        <v>76</v>
+      </c>
+      <c r="AK2">
+        <v>51</v>
+      </c>
+      <c r="AL2">
+        <v>63</v>
+      </c>
+      <c r="AM2">
         <v>45</v>
       </c>
-      <c r="G2">
+      <c r="AN2">
+        <v>45</v>
+      </c>
+      <c r="AO2">
+        <v>46</v>
+      </c>
+      <c r="AP2">
+        <v>61</v>
+      </c>
+      <c r="AQ2">
+        <v>73</v>
+      </c>
+      <c r="AR2">
+        <v>72</v>
+      </c>
+      <c r="AS2">
+        <v>50</v>
+      </c>
+      <c r="AT2">
         <v>51</v>
       </c>
-      <c r="H2">
-        <v>55</v>
-      </c>
-      <c r="I2">
-        <v>45</v>
-      </c>
-      <c r="J2">
-        <v>45</v>
-      </c>
-      <c r="K2">
-        <v>51</v>
-      </c>
-      <c r="L2">
-        <v>58</v>
-      </c>
-      <c r="M2">
-        <v>51</v>
-      </c>
-      <c r="N2">
-        <v>51</v>
-      </c>
-      <c r="O2">
-        <v>55</v>
-      </c>
-      <c r="P2">
-        <v>72</v>
-      </c>
-      <c r="Q2">
-        <v>70</v>
-      </c>
-      <c r="R2">
-        <v>57</v>
-      </c>
-      <c r="S2">
-        <v>72</v>
-      </c>
-      <c r="T2">
-        <v>60</v>
-      </c>
-      <c r="U2">
-        <v>63</v>
-      </c>
-      <c r="V2">
-        <v>54</v>
-      </c>
-      <c r="W2">
-        <v>43</v>
-      </c>
-      <c r="X2">
-        <v>62</v>
-      </c>
-      <c r="Y2">
-        <v>57</v>
-      </c>
-      <c r="Z2">
-        <v>75</v>
-      </c>
-      <c r="AA2">
-        <v>67</v>
-      </c>
-      <c r="AB2">
-        <v>54</v>
-      </c>
-      <c r="AC2">
-        <v>60</v>
-      </c>
-      <c r="AD2">
+      <c r="AU2">
+        <v>47</v>
+      </c>
+      <c r="AV2">
         <v>50</v>
       </c>
-      <c r="AE2">
-        <v>60</v>
-      </c>
-      <c r="AF2">
-        <v>56</v>
-      </c>
-      <c r="AG2">
-        <v>53</v>
-      </c>
-      <c r="AH2">
-        <v>48</v>
-      </c>
-      <c r="AI2">
-        <v>63</v>
-      </c>
-      <c r="AJ2">
-        <v>91</v>
-      </c>
-      <c r="AK2">
-        <v>61</v>
-      </c>
-      <c r="AL2">
-        <v>80</v>
-      </c>
-      <c r="AM2">
-        <v>55</v>
-      </c>
-      <c r="AN2">
-        <v>55</v>
-      </c>
-      <c r="AO2">
-        <v>49</v>
-      </c>
-      <c r="AP2">
-        <v>77</v>
-      </c>
-      <c r="AQ2">
-        <v>81</v>
-      </c>
-      <c r="AR2">
-        <v>83</v>
-      </c>
-      <c r="AS2">
-        <v>59</v>
-      </c>
-      <c r="AT2">
-        <v>55</v>
-      </c>
-      <c r="AU2">
-        <v>54</v>
-      </c>
-      <c r="AV2">
-        <v>59</v>
-      </c>
       <c r="AW2">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AX2">
         <v>100</v>
       </c>
       <c r="AY2">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="AZ2">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:52">
@@ -890,79 +890,79 @@
         <v>53</v>
       </c>
       <c r="B3">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C3">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D3">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
       <c r="F3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G3">
+        <v>64</v>
+      </c>
+      <c r="H3">
         <v>59</v>
       </c>
-      <c r="H3">
-        <v>56</v>
-      </c>
       <c r="I3">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L3">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M3">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N3">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="O3">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="P3">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q3">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="R3">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="S3">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="T3">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="U3">
+        <v>76</v>
+      </c>
+      <c r="V3">
         <v>58</v>
       </c>
-      <c r="V3">
-        <v>57</v>
-      </c>
       <c r="W3">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="X3">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y3">
         <v>59</v>
       </c>
       <c r="Z3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA3">
         <v>82</v>
@@ -971,13 +971,13 @@
         <v>79</v>
       </c>
       <c r="AC3">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AD3">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AE3">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF3">
         <v>59</v>
@@ -986,61 +986,61 @@
         <v>60</v>
       </c>
       <c r="AH3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI3">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AJ3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK3">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL3">
         <v>87</v>
       </c>
       <c r="AM3">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AN3">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AO3">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="AP3">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AQ3">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AR3">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AS3">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AT3">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AU3">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AV3">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AW3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AX3">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AY3">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AZ3">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:52">
@@ -1048,133 +1048,133 @@
         <v>54</v>
       </c>
       <c r="B4">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C4">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D4">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E4">
         <v>100</v>
       </c>
       <c r="F4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H4">
         <v>58</v>
       </c>
       <c r="I4">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J4">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K4">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L4">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M4">
+        <v>61</v>
+      </c>
+      <c r="N4">
+        <v>66</v>
+      </c>
+      <c r="O4">
         <v>59</v>
       </c>
-      <c r="N4">
-        <v>65</v>
-      </c>
-      <c r="O4">
+      <c r="P4">
+        <v>78</v>
+      </c>
+      <c r="Q4">
+        <v>73</v>
+      </c>
+      <c r="R4">
+        <v>76</v>
+      </c>
+      <c r="S4">
+        <v>84</v>
+      </c>
+      <c r="T4">
+        <v>74</v>
+      </c>
+      <c r="U4">
+        <v>72</v>
+      </c>
+      <c r="V4">
+        <v>60</v>
+      </c>
+      <c r="W4">
         <v>57</v>
-      </c>
-      <c r="P4">
-        <v>74</v>
-      </c>
-      <c r="Q4">
-        <v>70</v>
-      </c>
-      <c r="R4">
-        <v>73</v>
-      </c>
-      <c r="S4">
-        <v>81</v>
-      </c>
-      <c r="T4">
-        <v>77</v>
-      </c>
-      <c r="U4">
-        <v>71</v>
-      </c>
-      <c r="V4">
-        <v>60</v>
-      </c>
-      <c r="W4">
-        <v>55</v>
       </c>
       <c r="X4">
         <v>69</v>
       </c>
       <c r="Y4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z4">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AA4">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB4">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AC4">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AD4">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AE4">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AF4">
         <v>55</v>
       </c>
       <c r="AG4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AH4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AI4">
+        <v>74</v>
+      </c>
+      <c r="AJ4">
+        <v>71</v>
+      </c>
+      <c r="AK4">
+        <v>66</v>
+      </c>
+      <c r="AL4">
+        <v>84</v>
+      </c>
+      <c r="AM4">
+        <v>61</v>
+      </c>
+      <c r="AN4">
         <v>69</v>
       </c>
-      <c r="AJ4">
-        <v>94</v>
-      </c>
-      <c r="AK4">
+      <c r="AO4">
         <v>65</v>
       </c>
-      <c r="AL4">
-        <v>86</v>
-      </c>
-      <c r="AM4">
-        <v>58</v>
-      </c>
-      <c r="AN4">
-        <v>66</v>
-      </c>
-      <c r="AO4">
-        <v>66</v>
-      </c>
       <c r="AP4">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AQ4">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="AR4">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AS4">
         <v>61</v>
@@ -1183,22 +1183,22 @@
         <v>60</v>
       </c>
       <c r="AU4">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AV4">
+        <v>65</v>
+      </c>
+      <c r="AW4">
         <v>63</v>
       </c>
-      <c r="AW4">
+      <c r="AX4">
+        <v>80</v>
+      </c>
+      <c r="AY4">
         <v>61</v>
       </c>
-      <c r="AX4">
-        <v>73</v>
-      </c>
-      <c r="AY4">
-        <v>62</v>
-      </c>
       <c r="AZ4">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:52">
@@ -1209,43 +1209,43 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D5">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F5">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5">
         <v>65</v>
       </c>
       <c r="I5">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="J5">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5">
         <v>65</v>
       </c>
       <c r="L5">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M5">
         <v>61</v>
       </c>
       <c r="N5">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="O5">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P5">
         <v>80</v>
@@ -1254,109 +1254,109 @@
         <v>85</v>
       </c>
       <c r="R5">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="S5">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="T5">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U5">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="V5">
         <v>64</v>
       </c>
       <c r="W5">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X5">
         <v>70</v>
       </c>
       <c r="Y5">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Z5">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AA5">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB5">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AC5">
         <v>70</v>
       </c>
       <c r="AD5">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="AE5">
         <v>60</v>
       </c>
       <c r="AF5">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AG5">
         <v>68</v>
       </c>
       <c r="AH5">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AI5">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ5">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AK5">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AL5">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AM5">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AN5">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AO5">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AP5">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AQ5">
+        <v>42</v>
+      </c>
+      <c r="AR5">
+        <v>86</v>
+      </c>
+      <c r="AS5">
+        <v>63</v>
+      </c>
+      <c r="AT5">
         <v>61</v>
       </c>
-      <c r="AR5">
-        <v>88</v>
-      </c>
-      <c r="AS5">
-        <v>65</v>
-      </c>
-      <c r="AT5">
-        <v>59</v>
-      </c>
       <c r="AU5">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="AV5">
         <v>69</v>
       </c>
       <c r="AW5">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AX5">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AY5">
         <v>58</v>
       </c>
       <c r="AZ5">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:52">
@@ -1364,13 +1364,13 @@
         <v>56</v>
       </c>
       <c r="B6">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -1382,7 +1382,7 @@
         <v>55</v>
       </c>
       <c r="H6">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I6">
         <v>34</v>
@@ -1391,130 +1391,130 @@
         <v>51</v>
       </c>
       <c r="K6">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L6">
         <v>68</v>
       </c>
       <c r="M6">
+        <v>49</v>
+      </c>
+      <c r="N6">
+        <v>53</v>
+      </c>
+      <c r="O6">
         <v>54</v>
       </c>
-      <c r="N6">
-        <v>60</v>
-      </c>
-      <c r="O6">
-        <v>55</v>
-      </c>
       <c r="P6">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q6">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="R6">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S6">
         <v>85</v>
       </c>
       <c r="T6">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U6">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="V6">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W6">
         <v>49</v>
       </c>
       <c r="X6">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Y6">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Z6">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AA6">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AB6">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="AC6">
         <v>69</v>
       </c>
       <c r="AD6">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AE6">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF6">
+        <v>52</v>
+      </c>
+      <c r="AG6">
         <v>53</v>
       </c>
-      <c r="AG6">
-        <v>48</v>
-      </c>
       <c r="AH6">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI6">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AJ6">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AK6">
+        <v>68</v>
+      </c>
+      <c r="AL6">
+        <v>77</v>
+      </c>
+      <c r="AM6">
+        <v>64</v>
+      </c>
+      <c r="AN6">
+        <v>66</v>
+      </c>
+      <c r="AO6">
         <v>69</v>
-      </c>
-      <c r="AL6">
-        <v>83</v>
-      </c>
-      <c r="AM6">
-        <v>66</v>
-      </c>
-      <c r="AN6">
-        <v>67</v>
-      </c>
-      <c r="AO6">
-        <v>66</v>
       </c>
       <c r="AP6">
         <v>72</v>
       </c>
       <c r="AQ6">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AR6">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AS6">
         <v>67</v>
       </c>
       <c r="AT6">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AU6">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AV6">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AW6">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AX6">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AY6">
         <v>63</v>
       </c>
       <c r="AZ6">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:52">
@@ -1522,58 +1522,58 @@
         <v>57</v>
       </c>
       <c r="B7">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="D7">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F7">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H7">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I7">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J7">
         <v>49</v>
       </c>
       <c r="K7">
+        <v>52</v>
+      </c>
+      <c r="L7">
+        <v>63</v>
+      </c>
+      <c r="M7">
+        <v>48</v>
+      </c>
+      <c r="N7">
+        <v>50</v>
+      </c>
+      <c r="O7">
         <v>55</v>
       </c>
-      <c r="L7">
+      <c r="P7">
         <v>67</v>
       </c>
-      <c r="M7">
-        <v>54</v>
-      </c>
-      <c r="N7">
-        <v>57</v>
-      </c>
-      <c r="O7">
-        <v>57</v>
-      </c>
-      <c r="P7">
-        <v>74</v>
-      </c>
       <c r="Q7">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R7">
         <v>66</v>
       </c>
       <c r="S7">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="T7">
         <v>78</v>
@@ -1582,97 +1582,97 @@
         <v>68</v>
       </c>
       <c r="V7">
+        <v>50</v>
+      </c>
+      <c r="W7">
+        <v>44</v>
+      </c>
+      <c r="X7">
+        <v>63</v>
+      </c>
+      <c r="Y7">
         <v>52</v>
       </c>
-      <c r="W7">
-        <v>48</v>
-      </c>
-      <c r="X7">
-        <v>67</v>
-      </c>
-      <c r="Y7">
-        <v>55</v>
-      </c>
       <c r="Z7">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AA7">
+        <v>65</v>
+      </c>
+      <c r="AB7">
+        <v>56</v>
+      </c>
+      <c r="AC7">
+        <v>59</v>
+      </c>
+      <c r="AD7">
+        <v>41</v>
+      </c>
+      <c r="AE7">
+        <v>60</v>
+      </c>
+      <c r="AF7">
+        <v>51</v>
+      </c>
+      <c r="AG7">
+        <v>54</v>
+      </c>
+      <c r="AH7">
+        <v>47</v>
+      </c>
+      <c r="AI7">
         <v>66</v>
       </c>
-      <c r="AB7">
-        <v>58</v>
-      </c>
-      <c r="AC7">
-        <v>61</v>
-      </c>
-      <c r="AD7">
-        <v>43</v>
-      </c>
-      <c r="AE7">
-        <v>67</v>
-      </c>
-      <c r="AF7">
-        <v>53</v>
-      </c>
-      <c r="AG7">
-        <v>55</v>
-      </c>
-      <c r="AH7">
-        <v>49</v>
-      </c>
-      <c r="AI7">
-        <v>70</v>
-      </c>
       <c r="AJ7">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="AK7">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AL7">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AM7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AN7">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AO7">
         <v>53</v>
       </c>
       <c r="AP7">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AQ7">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AR7">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AS7">
+        <v>56</v>
+      </c>
+      <c r="AT7">
         <v>58</v>
       </c>
-      <c r="AT7">
-        <v>61</v>
-      </c>
       <c r="AU7">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AV7">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AW7">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AX7">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="AY7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AZ7">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:52">
@@ -1680,10 +1680,10 @@
         <v>58</v>
       </c>
       <c r="B8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C8">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D8">
         <v>55</v>
@@ -1692,7 +1692,7 @@
         <v>100</v>
       </c>
       <c r="F8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8">
         <v>53</v>
@@ -1701,7 +1701,7 @@
         <v>45</v>
       </c>
       <c r="I8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J8">
         <v>52</v>
@@ -1710,40 +1710,40 @@
         <v>60</v>
       </c>
       <c r="L8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M8">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="N8">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="O8">
         <v>55</v>
       </c>
       <c r="P8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q8">
         <v>56</v>
       </c>
       <c r="R8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T8">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="U8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V8">
         <v>54</v>
       </c>
       <c r="W8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X8">
         <v>64</v>
@@ -1752,85 +1752,85 @@
         <v>54</v>
       </c>
       <c r="Z8">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="AA8">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AB8">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AC8">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AD8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AF8">
         <v>49</v>
       </c>
       <c r="AG8">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AH8">
         <v>47</v>
       </c>
       <c r="AI8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ8">
+        <v>58</v>
+      </c>
+      <c r="AK8">
+        <v>64</v>
+      </c>
+      <c r="AL8">
+        <v>83</v>
+      </c>
+      <c r="AM8">
+        <v>54</v>
+      </c>
+      <c r="AN8">
+        <v>62</v>
+      </c>
+      <c r="AO8">
+        <v>45</v>
+      </c>
+      <c r="AP8">
+        <v>84</v>
+      </c>
+      <c r="AQ8">
         <v>66</v>
       </c>
-      <c r="AK8">
-        <v>66</v>
-      </c>
-      <c r="AL8">
-        <v>85</v>
-      </c>
-      <c r="AM8">
+      <c r="AR8">
+        <v>75</v>
+      </c>
+      <c r="AS8">
+        <v>60</v>
+      </c>
+      <c r="AT8">
+        <v>50</v>
+      </c>
+      <c r="AU8">
+        <v>44</v>
+      </c>
+      <c r="AV8">
+        <v>58</v>
+      </c>
+      <c r="AW8">
+        <v>56</v>
+      </c>
+      <c r="AX8">
+        <v>63</v>
+      </c>
+      <c r="AY8">
         <v>52</v>
       </c>
-      <c r="AN8">
-        <v>63</v>
-      </c>
-      <c r="AO8">
-        <v>50</v>
-      </c>
-      <c r="AP8">
-        <v>80</v>
-      </c>
-      <c r="AQ8">
-        <v>60</v>
-      </c>
-      <c r="AR8">
-        <v>77</v>
-      </c>
-      <c r="AS8">
-        <v>60</v>
-      </c>
-      <c r="AT8">
-        <v>53</v>
-      </c>
-      <c r="AU8">
-        <v>49</v>
-      </c>
-      <c r="AV8">
-        <v>60</v>
-      </c>
-      <c r="AW8">
-        <v>59</v>
-      </c>
-      <c r="AX8">
-        <v>59</v>
-      </c>
-      <c r="AY8">
-        <v>55</v>
-      </c>
       <c r="AZ8">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:52">
@@ -1838,16 +1838,16 @@
         <v>59</v>
       </c>
       <c r="B9">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C9">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D9">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E9">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F9">
         <v>45</v>
@@ -1856,139 +1856,139 @@
         <v>55</v>
       </c>
       <c r="H9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I9">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L9">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O9">
         <v>60</v>
       </c>
       <c r="P9">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q9">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S9">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="T9">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="U9">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="V9">
         <v>51</v>
       </c>
       <c r="W9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X9">
+        <v>64</v>
+      </c>
+      <c r="Y9">
+        <v>61</v>
+      </c>
+      <c r="Z9">
+        <v>92</v>
+      </c>
+      <c r="AA9">
+        <v>74</v>
+      </c>
+      <c r="AB9">
+        <v>69</v>
+      </c>
+      <c r="AC9">
         <v>66</v>
       </c>
-      <c r="Y9">
-        <v>59</v>
-      </c>
-      <c r="Z9">
-        <v>100</v>
-      </c>
-      <c r="AA9">
-        <v>71</v>
-      </c>
-      <c r="AB9">
-        <v>61</v>
-      </c>
-      <c r="AC9">
-        <v>69</v>
-      </c>
       <c r="AD9">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AE9">
         <v>53</v>
       </c>
       <c r="AF9">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG9">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AH9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI9">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ9">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="AK9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AL9">
         <v>97</v>
       </c>
       <c r="AM9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AO9">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AP9">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AQ9">
+        <v>66</v>
+      </c>
+      <c r="AR9">
+        <v>100</v>
+      </c>
+      <c r="AS9">
+        <v>63</v>
+      </c>
+      <c r="AT9">
+        <v>57</v>
+      </c>
+      <c r="AU9">
+        <v>56</v>
+      </c>
+      <c r="AV9">
+        <v>62</v>
+      </c>
+      <c r="AW9">
         <v>53</v>
       </c>
-      <c r="AR9">
-        <v>98</v>
-      </c>
-      <c r="AS9">
-        <v>64</v>
-      </c>
-      <c r="AT9">
-        <v>59</v>
-      </c>
-      <c r="AU9">
-        <v>63</v>
-      </c>
-      <c r="AV9">
-        <v>61</v>
-      </c>
-      <c r="AW9">
-        <v>51</v>
-      </c>
       <c r="AX9">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AY9">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AZ9">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:52">
@@ -1996,157 +1996,157 @@
         <v>60</v>
       </c>
       <c r="B10">
+        <v>85</v>
+      </c>
+      <c r="C10">
+        <v>62</v>
+      </c>
+      <c r="D10">
+        <v>63</v>
+      </c>
+      <c r="E10">
+        <v>89</v>
+      </c>
+      <c r="F10">
+        <v>49</v>
+      </c>
+      <c r="G10">
+        <v>56</v>
+      </c>
+      <c r="H10">
+        <v>52</v>
+      </c>
+      <c r="I10">
+        <v>31</v>
+      </c>
+      <c r="J10">
+        <v>50</v>
+      </c>
+      <c r="K10">
+        <v>68</v>
+      </c>
+      <c r="L10">
+        <v>73</v>
+      </c>
+      <c r="M10">
+        <v>63</v>
+      </c>
+      <c r="N10">
+        <v>74</v>
+      </c>
+      <c r="O10">
+        <v>69</v>
+      </c>
+      <c r="P10">
+        <v>96</v>
+      </c>
+      <c r="Q10">
+        <v>66</v>
+      </c>
+      <c r="R10">
+        <v>87</v>
+      </c>
+      <c r="S10">
+        <v>97</v>
+      </c>
+      <c r="T10">
         <v>75</v>
       </c>
-      <c r="C10">
+      <c r="U10">
+        <v>56</v>
+      </c>
+      <c r="V10">
+        <v>62</v>
+      </c>
+      <c r="W10">
+        <v>52</v>
+      </c>
+      <c r="X10">
+        <v>69</v>
+      </c>
+      <c r="Y10">
+        <v>62</v>
+      </c>
+      <c r="Z10">
+        <v>97</v>
+      </c>
+      <c r="AA10">
+        <v>76</v>
+      </c>
+      <c r="AB10">
+        <v>91</v>
+      </c>
+      <c r="AC10">
+        <v>75</v>
+      </c>
+      <c r="AD10">
         <v>57</v>
       </c>
-      <c r="D10">
-        <v>55</v>
-      </c>
-      <c r="E10">
-        <v>78</v>
-      </c>
-      <c r="F10">
-        <v>43</v>
-      </c>
-      <c r="G10">
-        <v>51</v>
-      </c>
-      <c r="H10">
-        <v>47</v>
-      </c>
-      <c r="I10">
-        <v>33</v>
-      </c>
-      <c r="J10">
-        <v>45</v>
-      </c>
-      <c r="K10">
+      <c r="AE10">
+        <v>62</v>
+      </c>
+      <c r="AF10">
+        <v>54</v>
+      </c>
+      <c r="AG10">
+        <v>62</v>
+      </c>
+      <c r="AH10">
+        <v>52</v>
+      </c>
+      <c r="AI10">
+        <v>79</v>
+      </c>
+      <c r="AJ10">
+        <v>82</v>
+      </c>
+      <c r="AK10">
+        <v>74</v>
+      </c>
+      <c r="AL10">
+        <v>97</v>
+      </c>
+      <c r="AM10">
+        <v>61</v>
+      </c>
+      <c r="AN10">
+        <v>67</v>
+      </c>
+      <c r="AO10">
+        <v>60</v>
+      </c>
+      <c r="AP10">
+        <v>85</v>
+      </c>
+      <c r="AQ10">
+        <v>75</v>
+      </c>
+      <c r="AR10">
+        <v>100</v>
+      </c>
+      <c r="AS10">
+        <v>68</v>
+      </c>
+      <c r="AT10">
+        <v>67</v>
+      </c>
+      <c r="AU10">
+        <v>53</v>
+      </c>
+      <c r="AV10">
+        <v>67</v>
+      </c>
+      <c r="AW10">
         <v>59</v>
       </c>
-      <c r="L10">
-        <v>64</v>
-      </c>
-      <c r="M10">
-        <v>56</v>
-      </c>
-      <c r="N10">
-        <v>64</v>
-      </c>
-      <c r="O10">
-        <v>60</v>
-      </c>
-      <c r="P10">
-        <v>86</v>
-      </c>
-      <c r="Q10">
-        <v>54</v>
-      </c>
-      <c r="R10">
-        <v>75</v>
-      </c>
-      <c r="S10">
-        <v>91</v>
-      </c>
-      <c r="T10">
-        <v>67</v>
-      </c>
-      <c r="U10">
-        <v>50</v>
-      </c>
-      <c r="V10">
-        <v>53</v>
-      </c>
-      <c r="W10">
-        <v>45</v>
-      </c>
-      <c r="X10">
-        <v>61</v>
-      </c>
-      <c r="Y10">
-        <v>58</v>
-      </c>
-      <c r="Z10">
-        <v>100</v>
-      </c>
-      <c r="AA10">
-        <v>64</v>
-      </c>
-      <c r="AB10">
-        <v>60</v>
-      </c>
-      <c r="AC10">
-        <v>66</v>
-      </c>
-      <c r="AD10">
-        <v>45</v>
-      </c>
-      <c r="AE10">
-        <v>58</v>
-      </c>
-      <c r="AF10">
-        <v>46</v>
-      </c>
-      <c r="AG10">
-        <v>54</v>
-      </c>
-      <c r="AH10">
-        <v>46</v>
-      </c>
-      <c r="AI10">
-        <v>69</v>
-      </c>
-      <c r="AJ10">
-        <v>75</v>
-      </c>
-      <c r="AK10">
-        <v>63</v>
-      </c>
-      <c r="AL10">
-        <v>85</v>
-      </c>
-      <c r="AM10">
-        <v>56</v>
-      </c>
-      <c r="AN10">
+      <c r="AX10">
+        <v>76</v>
+      </c>
+      <c r="AY10">
         <v>59</v>
       </c>
-      <c r="AO10">
-        <v>59</v>
-      </c>
-      <c r="AP10">
-        <v>76</v>
-      </c>
-      <c r="AQ10">
-        <v>80</v>
-      </c>
-      <c r="AR10">
-        <v>87</v>
-      </c>
-      <c r="AS10">
-        <v>60</v>
-      </c>
-      <c r="AT10">
-        <v>58</v>
-      </c>
-      <c r="AU10">
-        <v>46</v>
-      </c>
-      <c r="AV10">
-        <v>59</v>
-      </c>
-      <c r="AW10">
-        <v>52</v>
-      </c>
-      <c r="AX10">
-        <v>83</v>
-      </c>
-      <c r="AY10">
-        <v>53</v>
-      </c>
       <c r="AZ10">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:52">
@@ -2154,13 +2154,13 @@
         <v>61</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C11">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -2172,139 +2172,139 @@
         <v>53</v>
       </c>
       <c r="H11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="J11">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O11">
         <v>57</v>
       </c>
       <c r="P11">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q11">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="R11">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="S11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="T11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U11">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="W11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X11">
         <v>64</v>
       </c>
       <c r="Y11">
+        <v>62</v>
+      </c>
+      <c r="Z11">
+        <v>76</v>
+      </c>
+      <c r="AA11">
+        <v>64</v>
+      </c>
+      <c r="AB11">
+        <v>70</v>
+      </c>
+      <c r="AC11">
         <v>63</v>
       </c>
-      <c r="Z11">
-        <v>79</v>
-      </c>
-      <c r="AA11">
+      <c r="AD11">
+        <v>41</v>
+      </c>
+      <c r="AE11">
+        <v>52</v>
+      </c>
+      <c r="AF11">
+        <v>52</v>
+      </c>
+      <c r="AG11">
+        <v>58</v>
+      </c>
+      <c r="AH11">
+        <v>44</v>
+      </c>
+      <c r="AI11">
         <v>65</v>
       </c>
-      <c r="AB11">
-        <v>66</v>
-      </c>
-      <c r="AC11">
-        <v>66</v>
-      </c>
-      <c r="AD11">
-        <v>43</v>
-      </c>
-      <c r="AE11">
-        <v>51</v>
-      </c>
-      <c r="AF11">
-        <v>54</v>
-      </c>
-      <c r="AG11">
-        <v>59</v>
-      </c>
-      <c r="AH11">
-        <v>45</v>
-      </c>
-      <c r="AI11">
-        <v>67</v>
-      </c>
       <c r="AJ11">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AK11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AL11">
         <v>70</v>
       </c>
       <c r="AM11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AO11">
+        <v>58</v>
+      </c>
+      <c r="AP11">
+        <v>71</v>
+      </c>
+      <c r="AQ11">
+        <v>86</v>
+      </c>
+      <c r="AR11">
+        <v>87</v>
+      </c>
+      <c r="AS11">
+        <v>56</v>
+      </c>
+      <c r="AT11">
         <v>53</v>
       </c>
-      <c r="AP11">
-        <v>73</v>
-      </c>
-      <c r="AQ11">
-        <v>93</v>
-      </c>
-      <c r="AR11">
-        <v>86</v>
-      </c>
-      <c r="AS11">
+      <c r="AU11">
+        <v>56</v>
+      </c>
+      <c r="AV11">
         <v>58</v>
       </c>
-      <c r="AT11">
-        <v>54</v>
-      </c>
-      <c r="AU11">
-        <v>46</v>
-      </c>
-      <c r="AV11">
-        <v>60</v>
-      </c>
       <c r="AW11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AX11">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AY11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AZ11">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:52">
@@ -2312,157 +2312,157 @@
         <v>62</v>
       </c>
       <c r="B12">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C12">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D12">
+        <v>60</v>
+      </c>
+      <c r="E12">
+        <v>92</v>
+      </c>
+      <c r="F12">
+        <v>48</v>
+      </c>
+      <c r="G12">
         <v>63</v>
       </c>
-      <c r="E12">
-        <v>95</v>
-      </c>
-      <c r="F12">
-        <v>52</v>
-      </c>
-      <c r="G12">
+      <c r="H12">
+        <v>54</v>
+      </c>
+      <c r="I12">
+        <v>38</v>
+      </c>
+      <c r="J12">
+        <v>60</v>
+      </c>
+      <c r="K12">
+        <v>63</v>
+      </c>
+      <c r="L12">
         <v>68</v>
       </c>
-      <c r="H12">
-        <v>57</v>
-      </c>
-      <c r="I12">
-        <v>29</v>
-      </c>
-      <c r="J12">
-        <v>64</v>
-      </c>
-      <c r="K12">
-        <v>67</v>
-      </c>
-      <c r="L12">
-        <v>71</v>
-      </c>
       <c r="M12">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N12">
         <v>70</v>
       </c>
       <c r="O12">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="P12">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="Q12">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R12">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="S12">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="T12">
+        <v>65</v>
+      </c>
+      <c r="U12">
+        <v>62</v>
+      </c>
+      <c r="V12">
+        <v>53</v>
+      </c>
+      <c r="W12">
+        <v>54</v>
+      </c>
+      <c r="X12">
+        <v>66</v>
+      </c>
+      <c r="Y12">
+        <v>61</v>
+      </c>
+      <c r="Z12">
+        <v>82</v>
+      </c>
+      <c r="AA12">
+        <v>79</v>
+      </c>
+      <c r="AB12">
+        <v>47</v>
+      </c>
+      <c r="AC12">
+        <v>73</v>
+      </c>
+      <c r="AD12">
+        <v>53</v>
+      </c>
+      <c r="AE12">
+        <v>76</v>
+      </c>
+      <c r="AF12">
+        <v>56</v>
+      </c>
+      <c r="AG12">
+        <v>65</v>
+      </c>
+      <c r="AH12">
+        <v>51</v>
+      </c>
+      <c r="AI12">
+        <v>74</v>
+      </c>
+      <c r="AJ12">
+        <v>76</v>
+      </c>
+      <c r="AK12">
+        <v>69</v>
+      </c>
+      <c r="AL12">
+        <v>80</v>
+      </c>
+      <c r="AM12">
+        <v>66</v>
+      </c>
+      <c r="AN12">
+        <v>71</v>
+      </c>
+      <c r="AO12">
+        <v>63</v>
+      </c>
+      <c r="AP12">
+        <v>77</v>
+      </c>
+      <c r="AQ12">
+        <v>90</v>
+      </c>
+      <c r="AR12">
+        <v>93</v>
+      </c>
+      <c r="AS12">
         <v>67</v>
       </c>
-      <c r="U12">
+      <c r="AT12">
+        <v>63</v>
+      </c>
+      <c r="AU12">
         <v>70</v>
       </c>
-      <c r="V12">
-        <v>58</v>
-      </c>
-      <c r="W12">
+      <c r="AV12">
+        <v>65</v>
+      </c>
+      <c r="AW12">
         <v>59</v>
       </c>
-      <c r="X12">
-        <v>72</v>
-      </c>
-      <c r="Y12">
+      <c r="AX12">
+        <v>100</v>
+      </c>
+      <c r="AY12">
         <v>65</v>
       </c>
-      <c r="Z12">
-        <v>88</v>
-      </c>
-      <c r="AA12">
-        <v>84</v>
-      </c>
-      <c r="AB12">
-        <v>42</v>
-      </c>
-      <c r="AC12">
-        <v>79</v>
-      </c>
-      <c r="AD12">
-        <v>57</v>
-      </c>
-      <c r="AE12">
-        <v>71</v>
-      </c>
-      <c r="AF12">
-        <v>60</v>
-      </c>
-      <c r="AG12">
-        <v>68</v>
-      </c>
-      <c r="AH12">
-        <v>55</v>
-      </c>
-      <c r="AI12">
-        <v>80</v>
-      </c>
-      <c r="AJ12">
-        <v>95</v>
-      </c>
-      <c r="AK12">
-        <v>75</v>
-      </c>
-      <c r="AL12">
-        <v>86</v>
-      </c>
-      <c r="AM12">
-        <v>70</v>
-      </c>
-      <c r="AN12">
-        <v>78</v>
-      </c>
-      <c r="AO12">
-        <v>68</v>
-      </c>
-      <c r="AP12">
-        <v>80</v>
-      </c>
-      <c r="AQ12">
-        <v>99</v>
-      </c>
-      <c r="AR12">
-        <v>100</v>
-      </c>
-      <c r="AS12">
-        <v>72</v>
-      </c>
-      <c r="AT12">
-        <v>66</v>
-      </c>
-      <c r="AU12">
-        <v>66</v>
-      </c>
-      <c r="AV12">
-        <v>69</v>
-      </c>
-      <c r="AW12">
-        <v>63</v>
-      </c>
-      <c r="AX12">
-        <v>84</v>
-      </c>
-      <c r="AY12">
-        <v>70</v>
-      </c>
       <c r="AZ12">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:52">
@@ -2470,157 +2470,157 @@
         <v>63</v>
       </c>
       <c r="B13">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C13">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D13">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E13">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F13">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G13">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H13">
+        <v>66</v>
+      </c>
+      <c r="I13">
+        <v>62</v>
+      </c>
+      <c r="J13">
         <v>64</v>
       </c>
-      <c r="I13">
-        <v>67</v>
-      </c>
-      <c r="J13">
-        <v>59</v>
-      </c>
       <c r="K13">
+        <v>69</v>
+      </c>
+      <c r="L13">
+        <v>83</v>
+      </c>
+      <c r="M13">
         <v>66</v>
       </c>
-      <c r="L13">
-        <v>79</v>
-      </c>
-      <c r="M13">
+      <c r="N13">
+        <v>75</v>
+      </c>
+      <c r="O13">
         <v>62</v>
-      </c>
-      <c r="N13">
-        <v>76</v>
-      </c>
-      <c r="O13">
-        <v>60</v>
       </c>
       <c r="P13">
         <v>88</v>
       </c>
       <c r="Q13">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="R13">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="S13">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="T13">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U13">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="V13">
         <v>71</v>
       </c>
       <c r="W13">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="X13">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Y13">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Z13">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AA13">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AB13">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="AC13">
+        <v>76</v>
+      </c>
+      <c r="AD13">
         <v>73</v>
       </c>
-      <c r="AD13">
-        <v>76</v>
-      </c>
       <c r="AE13">
+        <v>63</v>
+      </c>
+      <c r="AF13">
+        <v>60</v>
+      </c>
+      <c r="AG13">
+        <v>44</v>
+      </c>
+      <c r="AH13">
         <v>61</v>
-      </c>
-      <c r="AF13">
-        <v>56</v>
-      </c>
-      <c r="AG13">
-        <v>41</v>
-      </c>
-      <c r="AH13">
-        <v>59</v>
       </c>
       <c r="AI13">
         <v>81</v>
       </c>
       <c r="AJ13">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="AK13">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AL13">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="AM13">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AN13">
+        <v>79</v>
+      </c>
+      <c r="AO13">
+        <v>84</v>
+      </c>
+      <c r="AP13">
+        <v>82</v>
+      </c>
+      <c r="AQ13">
+        <v>77</v>
+      </c>
+      <c r="AR13">
+        <v>94</v>
+      </c>
+      <c r="AS13">
+        <v>69</v>
+      </c>
+      <c r="AT13">
+        <v>73</v>
+      </c>
+      <c r="AU13">
+        <v>54</v>
+      </c>
+      <c r="AV13">
+        <v>73</v>
+      </c>
+      <c r="AW13">
+        <v>65</v>
+      </c>
+      <c r="AX13">
+        <v>68</v>
+      </c>
+      <c r="AY13">
         <v>76</v>
       </c>
-      <c r="AO13">
-        <v>80</v>
-      </c>
-      <c r="AP13">
-        <v>78</v>
-      </c>
-      <c r="AQ13">
-        <v>72</v>
-      </c>
-      <c r="AR13">
-        <v>92</v>
-      </c>
-      <c r="AS13">
-        <v>66</v>
-      </c>
-      <c r="AT13">
-        <v>67</v>
-      </c>
-      <c r="AU13">
-        <v>37</v>
-      </c>
-      <c r="AV13">
-        <v>72</v>
-      </c>
-      <c r="AW13">
-        <v>62</v>
-      </c>
-      <c r="AX13">
-        <v>45</v>
-      </c>
-      <c r="AY13">
-        <v>73</v>
-      </c>
       <c r="AZ13">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
